--- a/DataSet/list_of_all_teams.xlsx
+++ b/DataSet/list_of_all_teams.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nemanja\Downloads\SoftProjekat\DataSet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Rhein-Neckar </t>
   </si>
@@ -121,13 +126,16 @@
   </si>
   <si>
     <t xml:space="preserve">Conccordia Delitzsch </t>
+  </si>
+  <si>
+    <t>Nordhorn-Lingen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +222,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -260,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,9 +308,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,6 +343,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,188 +519,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -692,24 +715,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
